--- a/templates/dataplant/MIxS/MISAG_-_Single_amplified_genome.xlsx
+++ b/templates/dataplant/MIxS/MISAG_-_Single_amplified_genome.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93210CF9-6DF7-48DE-A341-5EB71F12A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3083448F-21E8-4178-AB06-65728950EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_template" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <t>MISAG - Single amplified genome</t>
   </si>
   <si>
-    <t>Template with the mandatory metadata based on the minimum information about a single amplified genome (MISAG) standard. This template should be combined with the MIxS - Sample information template to contain all required information.</t>
+    <t>Template with the mandatory metadata based on the Minimum Information about a Single Amplified Genome (MISAG) standard. This template should be combined with the MIxS - Sample information template to contain all required information.</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/dataplant/MIxS/MISAG_-_Single_amplified_genome.xlsx
+++ b/templates/dataplant/MIxS/MISAG_-_Single_amplified_genome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3083448F-21E8-4178-AB06-65728950EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C90BC9-DE59-432D-B95C-918A948C4EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>Template with the mandatory metadata based on the Minimum Information about a Single Amplified Genome (MISAG) standard. This template should be combined with the MIxS - Sample information template to contain all required information.</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C52474</t>
   </si>
 </sst>
 </file>
@@ -781,20 +787,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -802,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -810,7 +816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -818,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -826,7 +832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -834,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -842,32 +848,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -889,8 +895,11 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -903,8 +912,11 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -917,8 +929,11 @@
       <c r="G15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
